--- a/src/files/BoucheoCajaBanco.xlsx
+++ b/src/files/BoucheoCajaBanco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS943JJ\Desktop\T440-Eddy\documents\tensorflowjs\sentencesSimilarV2\sentences-tfjs\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS943JJ\Desktop\T440-Eddy\documents\tensorflowjs\sentencesSimilarV2\sentences-tfjs\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338F3B3-5BF4-473C-A87F-79C40349C5CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3638615-0F4B-43AE-88BD-D9A58DB0BB36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5A49478C-0C4E-4A37-99C8-C3CA170CE4B6}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Caja" sheetId="1" r:id="rId1"/>
     <sheet name="Bancos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -291,6 +294,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Caja"/>
+      <sheetName val="Bancos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>1192</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>93</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>114</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,7 +696,7 @@
       </c>
       <c r="C3">
         <f ca="1">+RANDBETWEEN(80,12000)</f>
-        <v>5078</v>
+        <v>8317</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -715,7 +774,7 @@
       </c>
       <c r="B10">
         <f ca="1">+RANDBETWEEN(90,120)</f>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -727,7 +786,7 @@
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B14" ca="1" si="0">+RANDBETWEEN(90,120)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -739,7 +798,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -751,7 +810,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -763,7 +822,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -871,7 +930,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="A2" sqref="A2:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,8 +972,8 @@
         <v>43446</v>
       </c>
       <c r="B3" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -928,8 +987,8 @@
         <v>44184</v>
       </c>
       <c r="B4" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -943,8 +1002,8 @@
         <v>44185</v>
       </c>
       <c r="B5" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -958,8 +1017,8 @@
         <v>44186</v>
       </c>
       <c r="B6" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -973,8 +1032,8 @@
         <v>44187</v>
       </c>
       <c r="B7" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -988,8 +1047,8 @@
         <v>44188</v>
       </c>
       <c r="B8" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1003,8 +1062,8 @@
         <v>44189</v>
       </c>
       <c r="B9" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1018,8 +1077,8 @@
         <v>44190</v>
       </c>
       <c r="B10" s="3">
-        <f ca="1">+Caja!$C$3/8</f>
-        <v>634.75</v>
+        <f ca="1">+[1]Caja!$C$3/8</f>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1033,7 +1092,7 @@
         <v>44191</v>
       </c>
       <c r="B11">
-        <f>+Caja!C4</f>
+        <f>+[1]Caja!C4</f>
         <v>0.05</v>
       </c>
       <c r="D11" t="s">
@@ -1047,7 +1106,7 @@
       <c r="A12" s="2">
         <v>44192</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>90</v>
       </c>
       <c r="D12" t="s">
@@ -1061,7 +1120,7 @@
       <c r="A13" s="2">
         <v>44193</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>65</v>
       </c>
       <c r="D13" t="s">
@@ -1075,7 +1134,7 @@
       <c r="A14" s="2">
         <v>44194</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>175</v>
       </c>
       <c r="D14" t="s">
@@ -1089,7 +1148,7 @@
       <c r="A15" s="2">
         <v>44195</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>89</v>
       </c>
       <c r="D15" t="s">
@@ -1103,8 +1162,8 @@
       <c r="A16" s="2">
         <v>44196</v>
       </c>
-      <c r="B16">
-        <f>+Caja!B9</f>
+      <c r="C16">
+        <f>+[1]Caja!B9</f>
         <v>75</v>
       </c>
       <c r="D16" t="s">
@@ -1118,9 +1177,9 @@
       <c r="A17" s="2">
         <v>44184</v>
       </c>
-      <c r="B17">
-        <f ca="1">+Caja!B10</f>
-        <v>105</v>
+      <c r="C17">
+        <f ca="1">+[1]Caja!B10</f>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1133,9 +1192,9 @@
       <c r="A18" s="2">
         <v>44185</v>
       </c>
-      <c r="B18">
-        <f ca="1">+Caja!$B$11/2</f>
-        <v>50</v>
+      <c r="C18">
+        <f ca="1">+[1]Caja!$B$11/2</f>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1148,9 +1207,9 @@
       <c r="A19" s="2">
         <v>44186</v>
       </c>
-      <c r="B19">
-        <f ca="1">+Caja!$B$11/2</f>
-        <v>50</v>
+      <c r="C19">
+        <f ca="1">+[1]Caja!$B$11/2</f>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1163,9 +1222,9 @@
       <c r="A20" s="2">
         <v>44187</v>
       </c>
-      <c r="B20">
-        <f ca="1">+Caja!$B$12/2</f>
-        <v>56.5</v>
+      <c r="C20">
+        <f ca="1">+[1]Caja!$B$12/2</f>
+        <v>57.5</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1178,9 +1237,9 @@
       <c r="A21" s="2">
         <v>44188</v>
       </c>
-      <c r="B21">
-        <f ca="1">+Caja!$B$12/2</f>
-        <v>56.5</v>
+      <c r="C21">
+        <f ca="1">+[1]Caja!$B$12/2</f>
+        <v>57.5</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1193,9 +1252,9 @@
       <c r="A22" s="2">
         <v>44189</v>
       </c>
-      <c r="B22">
-        <f ca="1">+Caja!B13-37</f>
-        <v>70</v>
+      <c r="C22">
+        <f ca="1">+[1]Caja!B13-37</f>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1208,7 +1267,7 @@
       <c r="A23" s="2">
         <v>44190</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>37</v>
       </c>
       <c r="D23" t="s">
@@ -1222,9 +1281,9 @@
       <c r="A24" s="2">
         <v>44191</v>
       </c>
-      <c r="B24">
-        <f ca="1">+Caja!B14-56</f>
-        <v>35</v>
+      <c r="C24">
+        <f ca="1">+[1]Caja!B14-56</f>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1237,7 +1296,7 @@
       <c r="A25" s="2">
         <v>44192</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>56</v>
       </c>
       <c r="D25" t="s">
@@ -1251,7 +1310,7 @@
       <c r="A26" s="2">
         <v>44193</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>7.5</v>
       </c>
       <c r="D26" t="s">
@@ -1265,7 +1324,7 @@
       <c r="A27" s="2">
         <v>44194</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>320</v>
       </c>
       <c r="D27" t="s">
@@ -1279,7 +1338,7 @@
       <c r="A28" s="2">
         <v>44195</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>470</v>
       </c>
       <c r="D28" t="s">
@@ -1293,7 +1352,7 @@
       <c r="A29" s="2">
         <v>44196</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>75</v>
       </c>
       <c r="D29" t="s">
@@ -1307,7 +1366,7 @@
       <c r="A30" s="2">
         <v>44184</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>39</v>
       </c>
       <c r="D30" t="s">
@@ -1321,7 +1380,7 @@
       <c r="A31" s="2">
         <v>44185</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1500</v>
       </c>
       <c r="D31" t="s">
@@ -1335,7 +1394,7 @@
       <c r="A32" s="2">
         <v>44186</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1500</v>
       </c>
       <c r="D32" t="s">
@@ -1349,7 +1408,7 @@
       <c r="A33" s="2">
         <v>44187</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1500</v>
       </c>
       <c r="D33" t="s">
@@ -1363,7 +1422,7 @@
       <c r="A34" s="2">
         <v>44188</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1500</v>
       </c>
       <c r="D34" t="s">
@@ -1377,7 +1436,7 @@
       <c r="A35" s="2">
         <v>44189</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1500</v>
       </c>
       <c r="D35" t="s">
@@ -1391,7 +1450,7 @@
       <c r="A36" s="2">
         <v>44190</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>1500</v>
       </c>
       <c r="D36" t="s">
@@ -1405,7 +1464,7 @@
       <c r="A37" s="2">
         <v>44191</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1500</v>
       </c>
       <c r="D37" t="s">
@@ -1419,7 +1478,7 @@
       <c r="A38" s="2">
         <v>44192</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1500</v>
       </c>
       <c r="D38" t="s">
@@ -1433,7 +1492,7 @@
       <c r="A39" s="2">
         <v>44193</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>127.99</v>
       </c>
       <c r="D39" t="s">
@@ -1447,7 +1506,7 @@
       <c r="A40" s="2">
         <v>44194</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>83</v>
       </c>
       <c r="D40" t="s">
@@ -1461,7 +1520,7 @@
       <c r="A41" s="2">
         <v>44195</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>6.35</v>
       </c>
       <c r="D41" t="s">
@@ -1475,7 +1534,7 @@
       <c r="A42" s="2">
         <v>44196</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>1.27</v>
       </c>
       <c r="D42" t="s">
@@ -1489,7 +1548,7 @@
       <c r="A43" s="2">
         <v>44196</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>12.5</v>
       </c>
       <c r="D43" t="s">
@@ -1503,7 +1562,7 @@
       <c r="A44" s="2">
         <v>44196</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>6.75</v>
       </c>
       <c r="D44" t="s">
